--- a/Assets/Excel/EngineExcel.xlsx
+++ b/Assets/Excel/EngineExcel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dice_Game\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5399377F-6CCA-47CD-910F-B777C558F46B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6881BA91-8889-400F-A6DF-CB1984E5C10B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="1440" windowWidth="24686" windowHeight="13054" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1783" yWindow="1783" windowWidth="24686" windowHeight="13054" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CharacterData" sheetId="1" r:id="rId1"/>
@@ -53,10 +53,6 @@
     <t>2,3,4,5</t>
   </si>
   <si>
-    <t>안녕</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>name</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -64,12 +60,16 @@
     <t>id</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>안녕못해</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -102,6 +102,13 @@
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -124,11 +131,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -349,8 +357,8 @@
   </sheetPr>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.61328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -379,8 +387,8 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>20</v>
+      <c r="A2" s="4">
+        <v>40</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
@@ -411,18 +419,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19C626FD-9A21-4318-ABA6-85FAF61B52DF}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.45">
@@ -430,7 +438,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
